--- a/Web Scraping and API/Workbook/songs_info.xlsx
+++ b/Web Scraping and API/Workbook/songs_info.xlsx
@@ -448,12 +448,12 @@
     <t>https://music.apple.com/us/album/with-a-little-help-from-my-friends/1441133100?i=1441133267&amp;uo=4</t>
   </si>
   <si>
+    <t>https://music.apple.com/us/album/revolution-1/1441133180?i=1441134376&amp;uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/come-together-2019-mix/1474815798?i=1474815799&amp;uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/revolution-1/1441133180?i=1441134376&amp;uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/lucy-in-the-sky-with-diamonds/1441133100?i=1441133268&amp;uo=4</t>
   </si>
   <si>
@@ -496,12 +496,12 @@
     <t>https://music.apple.com/us/album/sexy-sadie/1441133180?i=1441134198&amp;uo=4</t>
   </si>
   <si>
+    <t>https://music.apple.com/us/album/penny-lane/1441133100?i=1441133102&amp;uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/the-continuing-story-of-bungalow-bill/1441133180?i=1441133634&amp;uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/penny-lane/1441133100?i=1441133102&amp;uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/get-back/1441133100?i=1441133283&amp;uo=4</t>
   </si>
   <si>
@@ -571,12 +571,12 @@
     <t>https://music.apple.com/us/album/in-my-life/1441164359?i=1441164829&amp;uo=4</t>
   </si>
   <si>
+    <t>https://music.apple.com/us/album/something/1441133100?i=1441133501&amp;uo=4</t>
+  </si>
+  <si>
     <t>https://books.apple.com/us/audiobook/the-beatles-unabridged/id1646008816?uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/something/1441133100?i=1441133501&amp;uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/sgt-peppers-lonely-hearts-club-band/1441133100?i=1441133109&amp;uo=4</t>
   </si>
   <si>
@@ -637,12 +637,12 @@
     <t>https://music.apple.com/us/album/love-me-do/1440833098?i=1440833334&amp;uo=4</t>
   </si>
   <si>
+    <t>https://books.apple.com/us/audiobook/the-beatles-interviews-from-the-edge-the/id1477982007?uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/day-tripper/1441132965?i=1441133726&amp;uo=4</t>
   </si>
   <si>
-    <t>https://books.apple.com/us/audiobook/the-beatles-interviews-from-the-edge-the/id1477982007?uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/eleanor-rigby/1441132965?i=1441134125&amp;uo=4</t>
   </si>
   <si>
@@ -667,12 +667,12 @@
     <t>https://music.apple.com/us/album/day-tripper/1440833098?i=1440833893&amp;uo=4</t>
   </si>
   <si>
+    <t>https://music.apple.com/us/album/youve-got-to-hide-your-love-away/1441132965?i=1441133714&amp;uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/she-loves-you/1440833098?i=1440833539&amp;uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/youve-got-to-hide-your-love-away/1441132965?i=1441133714&amp;uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/paperback-writer/1441132965?i=1441134120&amp;uo=4</t>
   </si>
   <si>
@@ -685,21 +685,21 @@
     <t>https://music.apple.com/us/album/cant-buy-me-love/1441132965?i=1441133471&amp;uo=4</t>
   </si>
   <si>
+    <t>https://music.apple.com/us/album/a-hard-days-night/1441132965?i=1441133482&amp;uo=4</t>
+  </si>
+  <si>
+    <t>https://music.apple.com/us/album/eight-days-a-week/1441132965?i=1441133487&amp;uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/get-back/1440833098?i=1440834225&amp;uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/a-hard-days-night/1441132965?i=1441133482&amp;uo=4</t>
-  </si>
-  <si>
-    <t>https://music.apple.com/us/album/eight-days-a-week/1441132965?i=1441133487&amp;uo=4</t>
+    <t>https://music.apple.com/us/album/help/1441132965?i=1441133711&amp;uo=4</t>
   </si>
   <si>
     <t>https://music.apple.com/us/album/ticket-to-ride/1440833098?i=1440833554&amp;uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/help/1441132965?i=1441133711&amp;uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/michelle/1441132965?i=1441134003&amp;uo=4</t>
   </si>
   <si>
@@ -712,12 +712,12 @@
     <t>https://music.apple.com/us/album/love-me-do-mono-version/1441132965?i=1441132983&amp;uo=4</t>
   </si>
   <si>
+    <t>https://music.apple.com/us/album/norwegian-wood-this-bird-has-flown/1441132965?i=1441133731&amp;uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/i-feel-fine/1440833098?i=1440833545&amp;uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/norwegian-wood-this-bird-has-flown/1441132965?i=1441133731&amp;uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/the-ballad-of-john-and-yoko/1440833098?i=1440834231&amp;uo=4</t>
   </si>
   <si>
@@ -895,12 +895,12 @@
     <t>https://music.apple.com/us/album/dont-bother-me/1441164362?i=1441164627&amp;uo=4</t>
   </si>
   <si>
+    <t>https://music.apple.com/us/album/rock-and-roll-music/1441165005?i=1441165094&amp;uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/good-morning-good-morning-remix/1573250333?i=1573251683&amp;uo=4</t>
   </si>
   <si>
-    <t>https://music.apple.com/us/album/rock-and-roll-music/1441165005?i=1441165094&amp;uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/here-comes-the-sun-glee-cast-version-feat-demi-lovato/696884325?i=696885670&amp;uo=4</t>
   </si>
   <si>
@@ -931,12 +931,12 @@
     <t>https://music.apple.com/us/music-video/with-the-beatles-documentary/1441165035?uo=4</t>
   </si>
   <si>
+    <t>https://books.apple.com/us/audiobook/the-beatles-the-pocket-essential-guide/id1454533897?uo=4</t>
+  </si>
+  <si>
     <t>https://music.apple.com/us/album/little-child/1441164362?i=1441164630&amp;uo=4</t>
   </si>
   <si>
-    <t>https://books.apple.com/us/audiobook/the-beatles-the-pocket-essential-guide/id1454533897?uo=4</t>
-  </si>
-  <si>
     <t>https://music.apple.com/us/album/got-to-get-you-into-my-life-2022-mix/1642995371?i=1642996129&amp;uo=4</t>
   </si>
   <si>
@@ -1057,12 +1057,12 @@
     <t>https://is4-ssl.mzstatic.com/image/thumb/Music125/v4/9c/ff/b5/9cffb5a6-a37f-c84a-7240-0333a071bc92/00602567725275.rgb.jpg/60x60bb.jpg</t>
   </si>
   <si>
+    <t>https://is2-ssl.mzstatic.com/image/thumb/Video113/v4/4d/d1/12/4dd11293-02ca-b585-1767-b8eabc494700/00602557271515.jpg/60x60bb.jpg</t>
+  </si>
+  <si>
     <t>https://is1-ssl.mzstatic.com/image/thumb/Video128/v4/71/cc/21/71cc21ab-4f2e-10d1-fd69-d8cb4692feb0/dj.atkhrlfw.jpg/60x60bb.jpg</t>
   </si>
   <si>
-    <t>https://is2-ssl.mzstatic.com/image/thumb/Video113/v4/4d/d1/12/4dd11293-02ca-b585-1767-b8eabc494700/00602557271515.jpg/60x60bb.jpg</t>
-  </si>
-  <si>
     <t>https://is5-ssl.mzstatic.com/image/thumb/Music114/v4/6a/9b/28/6a9b2839-c8fe-55a6-0169-46d9bdc54b88/9781848391994_cover.jpg/60x60bb.jpg</t>
   </si>
   <si>
@@ -1168,12 +1168,12 @@
     <t>https://is4-ssl.mzstatic.com/image/thumb/Music125/v4/9c/ff/b5/9cffb5a6-a37f-c84a-7240-0333a071bc92/00602567725275.rgb.jpg/100x100bb.jpg</t>
   </si>
   <si>
+    <t>https://is2-ssl.mzstatic.com/image/thumb/Video113/v4/4d/d1/12/4dd11293-02ca-b585-1767-b8eabc494700/00602557271515.jpg/100x100bb.jpg</t>
+  </si>
+  <si>
     <t>https://is1-ssl.mzstatic.com/image/thumb/Video128/v4/71/cc/21/71cc21ab-4f2e-10d1-fd69-d8cb4692feb0/dj.atkhrlfw.jpg/100x100bb.jpg</t>
   </si>
   <si>
-    <t>https://is2-ssl.mzstatic.com/image/thumb/Video113/v4/4d/d1/12/4dd11293-02ca-b585-1767-b8eabc494700/00602557271515.jpg/100x100bb.jpg</t>
-  </si>
-  <si>
     <t>https://is5-ssl.mzstatic.com/image/thumb/Music114/v4/6a/9b/28/6a9b2839-c8fe-55a6-0169-46d9bdc54b88/9781848391994_cover.jpg/100x100bb.jpg</t>
   </si>
   <si>
@@ -1501,12 +1501,12 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/f5/56/ed/f556ed51-1752-b1a1-7285-ddc41a26825d/mzaf_12379064960286766544.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview125/v4/bc/70/d3/bc70d39d-60f9-8957-fa1b-820c6e268584/mzaf_6152385202399959333.plus.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/e1/9a/1e/e19a1ef0-94b3-7aae-e7e8-f24f5bc33f72/mzaf_3071541922542051963.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview125/v4/bc/70/d3/bc70d39d-60f9-8957-fa1b-820c6e268584/mzaf_6152385202399959333.plus.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/79/d3/84/79d38477-b744-c495-f165-7631d50f4c39/mzaf_5756539823313754456.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1549,12 +1549,12 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview125/v4/9d/88/1f/9d881f6d-c7e6-4728-644b-2c74110b98d2/mzaf_5291899988247267522.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/20/41/e4/2041e4db-feee-1bec-20a3-58602519f6c3/mzaf_7549326570517214448.plus.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview115/v4/4c/5e/48/4c5e48e3-c08f-814d-570f-e934a71aff47/mzaf_2287261268531929013.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/20/41/e4/2041e4db-feee-1bec-20a3-58602519f6c3/mzaf_7549326570517214448.plus.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/f6/ff/55/f6ff552d-d7a9-130b-aa0e-9996bb1d0321/mzaf_61089697969510047.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1624,12 +1624,12 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview115/v4/5c/77/c1/5c77c105-9a32-bee4-0ffa-76244dacb60a/mzaf_5900747299452570221.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/c8/c3/a8/c8c3a861-0859-b1e9-6a82-c092ff5f5248/mzaf_3624044134850247968.plus.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/cb/e1/0e/cbe10e4c-f201-18ef-55d5-069c6b4fcca1/mzaf_14191771216598309057.std.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/c8/c3/a8/c8c3a861-0859-b1e9-6a82-c092ff5f5248/mzaf_3624044134850247968.plus.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/49/6a/fc/496afc69-9812-56dd-361f-18750d3221ef/mzaf_13515631957000069693.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1690,12 +1690,12 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/f5/0a/3a/f50a3a9c-a0f6-f33b-1d2f-8aeccd518911/mzaf_2130758345953069918.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview123/v4/4a/8a/0e/4a8a0e56-0075-2ddb-076b-5911cc16fc66/mzaf_7997685233973406959.std.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/9d/55/b9/9d55b92d-47a7-91a7-aaec-d96f238c1334/mzaf_15906013049339481645.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview123/v4/4a/8a/0e/4a8a0e56-0075-2ddb-076b-5911cc16fc66/mzaf_7997685233973406959.std.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/62/02/66/620266e6-06ec-8f12-6b72-a29c5460971f/mzaf_15766137770005926740.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1720,12 +1720,12 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/b7/dd/1f/b7dd1f59-45d8-9892-5451-c47b8bf6d6ed/mzaf_2954361714537767903.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/7e/39/16/7e39169f-0b7d-a09f-0802-b4333fd9f3a0/mzaf_3067496292019828066.plus.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/3d/63/4c/3d634c82-d00e-19a5-8cb9-63cd6f24bd75/mzaf_11272993217155636113.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/7e/39/16/7e39169f-0b7d-a09f-0802-b4333fd9f3a0/mzaf_3067496292019828066.plus.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/78/42/2f/78422f67-e339-7c12-c133-8202d0ac74db/mzaf_14074895373127709894.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1738,21 +1738,21 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/98/d5/1e/98d51e94-9eb6-5a26-9bed-cabe6d90ae6b/mzaf_9557910898937193181.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/a4/d3/29/a4d3295d-bd41-9169-24dd-a44e40f0fef0/mzaf_14902220992469995637.plus.aac.p.m4a</t>
+  </si>
+  <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/58/7b/62/587b624e-d882-4b60-f4c1-4ca68865018f/mzaf_16210975115294469553.plus.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/10/0d/16/100d16e1-182a-eba0-5b47-4cae9a55d9f9/mzaf_4871132939333919607.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/a4/d3/29/a4d3295d-bd41-9169-24dd-a44e40f0fef0/mzaf_14902220992469995637.plus.aac.p.m4a</t>
-  </si>
-  <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/58/7b/62/587b624e-d882-4b60-f4c1-4ca68865018f/mzaf_16210975115294469553.plus.aac.p.m4a</t>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/de/d1/29/ded1292f-b2ad-224a-c4f8-52563a009a7c/mzaf_5864644070426021308.plus.aac.p.m4a</t>
   </si>
   <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/dd/f9/b4/ddf9b466-f76f-62e0-1ef5-eb79342df65d/mzaf_13912107514273696313.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/de/d1/29/ded1292f-b2ad-224a-c4f8-52563a009a7c/mzaf_5864644070426021308.plus.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/7e/ab/1c/7eab1cd4-52b7-60b3-0779-354671ca1b0c/mzaf_17073687939379942663.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1765,12 +1765,12 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/ac/b6/a6/acb6a6a8-c318-330c-e105-62acd52d62fa/mzaf_2607133722045139033.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/f2/5b/18/f25b187d-004e-be70-8ae6-8d8b53cb8a54/mzaf_7541371304432728929.plus.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/c9/2d/0c/c92d0c80-1387-6aa6-6d18-99ee0bec5ed5/mzaf_12170257385284309274.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/f2/5b/18/f25b187d-004e-be70-8ae6-8d8b53cb8a54/mzaf_7541371304432728929.plus.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview122/v4/20/5d/fd/205dfd94-b683-f781-34b3-0edc02ace9fe/mzaf_4123299305445055913.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1948,12 +1948,12 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview125/v4/ec/9e/9d/ec9e9d13-d6a4-e518-2762-dfaf783485e0/mzaf_9116129221138335460.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview115/v4/03/17/e1/0317e119-bdda-39a3-d757-3e5d860cae95/mzaf_2410416766150478285.plus.aac.p.m4a</t>
+  </si>
+  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/ee/79/8e/ee798e02-be6b-d1f6-ac92-e32c767ee2bc/mzaf_7887778676490873626.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview115/v4/03/17/e1/0317e119-bdda-39a3-d757-3e5d860cae95/mzaf_2410416766150478285.plus.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview125/v4/92/85/24/928524d4-7d63-72c2-1da4-84cfa26d7c2f/mzaf_15111685975508493940.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -1981,18 +1981,18 @@
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview125/v4/b5/b7/2e/b5b72e13-db7c-da62-b98a-7fc5cc6cd3cb/mzaf_7858608045514386270.plus.aac.p.m4a</t>
   </si>
   <si>
+    <t>https://video-ssl.itunes.apple.com/itunes-assets/Video123/v4/cc/11/6c/cc116c0d-7997-d107-e88d-0e3e54e45759/mzvf_2177426969534231721.640x358.h264lc.U.p.m4v</t>
+  </si>
+  <si>
     <t>https://video-ssl.itunes.apple.com/itunes-assets/Video118/v4/94/06/5b/94065b0c-8b4e-afbb-36e1-b8ea4262dfa7/mzvf_6301112882103153978.640x480.h264lc.U.p.m4v</t>
   </si>
   <si>
-    <t>https://video-ssl.itunes.apple.com/itunes-assets/Video123/v4/cc/11/6c/cc116c0d-7997-d107-e88d-0e3e54e45759/mzvf_2177426969534231721.640x358.h264lc.U.p.m4v</t>
+    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview123/v4/46/74/22/4674220b-ec41-c058-2c87-4bd1d7f31eab/mzaf_6782547560392152472.std.aac.p.m4a</t>
   </si>
   <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview125/v4/3f/06/62/3f066258-4996-b6e6-1e71-0c59657debf1/mzaf_15773796251109297816.plus.aac.p.m4a</t>
   </si>
   <si>
-    <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview123/v4/46/74/22/4674220b-ec41-c058-2c87-4bd1d7f31eab/mzaf_6782547560392152472.std.aac.p.m4a</t>
-  </si>
-  <si>
     <t>https://audio-ssl.itunes.apple.com/itunes-assets/AudioPreview112/v4/b8/0d/61/b80d6127-7925-dea4-3754-b2dd91652864/mzaf_15271663956935888084.plus.aac.p.m4a</t>
   </si>
   <si>
@@ -2107,12 +2107,12 @@
     <t>With a Little Help From My Friends</t>
   </si>
   <si>
+    <t>Revolution 1</t>
+  </si>
+  <si>
     <t>Come Together</t>
   </si>
   <si>
-    <t>Revolution 1</t>
-  </si>
-  <si>
     <t>Lucy In the Sky with Diamonds</t>
   </si>
   <si>
@@ -2143,12 +2143,12 @@
     <t>Sexy Sadie</t>
   </si>
   <si>
+    <t>Penny Lane</t>
+  </si>
+  <si>
     <t>The Continuing Story of Bungalow Bill</t>
   </si>
   <si>
-    <t>Penny Lane</t>
-  </si>
-  <si>
     <t>Get Back</t>
   </si>
   <si>
@@ -2389,12 +2389,12 @@
     <t>Don't Bother Me</t>
   </si>
   <si>
+    <t>Rock and Roll Music</t>
+  </si>
+  <si>
     <t>Good Morning Good Morning</t>
   </si>
   <si>
-    <t>Rock and Roll Music</t>
-  </si>
-  <si>
     <t>Here Comes the Sun (Glee Cast Version) [feat. Demi Lovato]</t>
   </si>
   <si>
@@ -2638,10 +2638,10 @@
     <t>https://is4-ssl.mzstatic.com/image/thumb/Music125/v4/9c/ff/b5/9cffb5a6-a37f-c84a-7240-0333a071bc92/00602567725275.rgb.jpg/30x30bb.jpg</t>
   </si>
   <si>
+    <t>https://is2-ssl.mzstatic.com/image/thumb/Video113/v4/4d/d1/12/4dd11293-02ca-b585-1767-b8eabc494700/00602557271515.jpg/30x30bb.jpg</t>
+  </si>
+  <si>
     <t>https://is1-ssl.mzstatic.com/image/thumb/Video128/v4/71/cc/21/71cc21ab-4f2e-10d1-fd69-d8cb4692feb0/dj.atkhrlfw.jpg/30x30bb.jpg</t>
-  </si>
-  <si>
-    <t>https://is2-ssl.mzstatic.com/image/thumb/Video113/v4/4d/d1/12/4dd11293-02ca-b585-1767-b8eabc494700/00602557271515.jpg/30x30bb.jpg</t>
   </si>
   <si>
     <t>Explicit</t>
@@ -5944,16 +5944,16 @@
         <v>136975</v>
       </c>
       <c r="C32">
-        <v>1474815798</v>
+        <v>1441133180</v>
       </c>
       <c r="D32" t="s">
         <v>47</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>100</v>
@@ -5962,19 +5962,19 @@
         <v>144</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K32">
-        <v>12.99</v>
+        <v>19.99</v>
       </c>
       <c r="L32" t="s">
         <v>387</v>
       </c>
       <c r="M32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N32" t="s">
         <v>390</v>
@@ -5983,7 +5983,7 @@
         <v>391</v>
       </c>
       <c r="P32" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="Q32" t="s">
         <v>457</v>
@@ -5995,19 +5995,19 @@
         <v>672</v>
       </c>
       <c r="U32">
-        <v>1474815799</v>
+        <v>1441134376</v>
       </c>
       <c r="V32" t="s">
         <v>697</v>
       </c>
       <c r="W32" t="s">
-        <v>807</v>
+        <v>697</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>144</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="Z32">
         <v>1.29</v>
@@ -6016,16 +6016,16 @@
         <v>387</v>
       </c>
       <c r="AB32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AE32">
-        <v>260200</v>
+        <v>255707</v>
       </c>
       <c r="AF32" t="b">
         <v>1</v>
@@ -6039,16 +6039,16 @@
         <v>136975</v>
       </c>
       <c r="C33">
-        <v>1441133180</v>
+        <v>1474815798</v>
       </c>
       <c r="D33" t="s">
         <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>100</v>
@@ -6057,19 +6057,19 @@
         <v>145</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="K33">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="L33" t="s">
         <v>387</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N33" t="s">
         <v>390</v>
@@ -6078,7 +6078,7 @@
         <v>391</v>
       </c>
       <c r="P33" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="Q33" t="s">
         <v>457</v>
@@ -6090,19 +6090,19 @@
         <v>672</v>
       </c>
       <c r="U33">
-        <v>1441134376</v>
+        <v>1474815799</v>
       </c>
       <c r="V33" t="s">
         <v>698</v>
       </c>
       <c r="W33" t="s">
-        <v>698</v>
+        <v>807</v>
       </c>
       <c r="X33" s="2" t="s">
         <v>145</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="Z33">
         <v>1.29</v>
@@ -6111,16 +6111,16 @@
         <v>387</v>
       </c>
       <c r="AB33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>255707</v>
+        <v>260200</v>
       </c>
       <c r="AF33" t="b">
         <v>1</v>
@@ -7461,16 +7461,16 @@
         <v>136975</v>
       </c>
       <c r="C48">
-        <v>1441133180</v>
+        <v>1441133100</v>
       </c>
       <c r="D48" t="s">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>100</v>
@@ -7479,10 +7479,10 @@
         <v>160</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K48">
         <v>19.99</v>
@@ -7491,7 +7491,7 @@
         <v>387</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N48" t="s">
         <v>390</v>
@@ -7500,7 +7500,7 @@
         <v>391</v>
       </c>
       <c r="P48" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="Q48" t="s">
         <v>457</v>
@@ -7512,7 +7512,7 @@
         <v>672</v>
       </c>
       <c r="U48">
-        <v>1441133634</v>
+        <v>1441133102</v>
       </c>
       <c r="V48" t="s">
         <v>709</v>
@@ -7524,7 +7524,7 @@
         <v>160</v>
       </c>
       <c r="Y48" s="2" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="Z48">
         <v>1.29</v>
@@ -7533,16 +7533,16 @@
         <v>387</v>
       </c>
       <c r="AB48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AC48">
         <v>1</v>
       </c>
       <c r="AD48">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AE48">
-        <v>194160</v>
+        <v>181600</v>
       </c>
       <c r="AF48" t="b">
         <v>1</v>
@@ -7556,16 +7556,16 @@
         <v>136975</v>
       </c>
       <c r="C49">
-        <v>1441133100</v>
+        <v>1441133180</v>
       </c>
       <c r="D49" t="s">
         <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>100</v>
@@ -7574,10 +7574,10 @@
         <v>161</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="K49">
         <v>19.99</v>
@@ -7586,7 +7586,7 @@
         <v>387</v>
       </c>
       <c r="M49">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N49" t="s">
         <v>390</v>
@@ -7595,7 +7595,7 @@
         <v>391</v>
       </c>
       <c r="P49" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="Q49" t="s">
         <v>457</v>
@@ -7607,7 +7607,7 @@
         <v>672</v>
       </c>
       <c r="U49">
-        <v>1441133102</v>
+        <v>1441133634</v>
       </c>
       <c r="V49" t="s">
         <v>710</v>
@@ -7619,7 +7619,7 @@
         <v>161</v>
       </c>
       <c r="Y49" s="2" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="Z49">
         <v>1.29</v>
@@ -7628,16 +7628,16 @@
         <v>387</v>
       </c>
       <c r="AB49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC49">
         <v>1</v>
       </c>
       <c r="AD49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AE49">
-        <v>181600</v>
+        <v>194160</v>
       </c>
       <c r="AF49" t="b">
         <v>1</v>
@@ -9133,10 +9133,10 @@
         <v>1441133290</v>
       </c>
       <c r="V65" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="W65" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="X65" s="2" t="s">
         <v>177</v>
@@ -9833,34 +9833,34 @@
     </row>
     <row r="73" spans="1:34">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B73">
-        <v>2037074</v>
+        <v>136975</v>
       </c>
       <c r="C73">
-        <v>1646008816</v>
+        <v>1441133100</v>
       </c>
       <c r="D73" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E73" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F73" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>185</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="K73">
         <v>19.99</v>
@@ -9869,7 +9869,7 @@
         <v>387</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N73" t="s">
         <v>390</v>
@@ -9878,51 +9878,84 @@
         <v>391</v>
       </c>
       <c r="P73" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="Q73" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="R73" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="S73" t="s">
-        <v>668</v>
-      </c>
-      <c r="AH73" t="s">
-        <v>881</v>
+      <c r="T73" t="s">
+        <v>672</v>
+      </c>
+      <c r="U73">
+        <v>1441133501</v>
+      </c>
+      <c r="V73" t="s">
+        <v>729</v>
+      </c>
+      <c r="W73" t="s">
+        <v>729</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="Z73">
+        <v>1.29</v>
+      </c>
+      <c r="AA73" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB73">
+        <v>2</v>
+      </c>
+      <c r="AC73">
+        <v>2</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>183800</v>
+      </c>
+      <c r="AF73" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:34">
       <c r="A74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B74">
-        <v>136975</v>
+        <v>2037074</v>
       </c>
       <c r="C74">
-        <v>1441133100</v>
+        <v>1646008816</v>
       </c>
       <c r="D74" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="F74" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>186</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="K74">
         <v>19.99</v>
@@ -9931,7 +9964,7 @@
         <v>387</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N74" t="s">
         <v>390</v>
@@ -9940,52 +9973,19 @@
         <v>391</v>
       </c>
       <c r="P74" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="Q74" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="R74" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="T74" t="s">
-        <v>672</v>
-      </c>
-      <c r="U74">
-        <v>1441133501</v>
-      </c>
-      <c r="V74" t="s">
-        <v>729</v>
-      </c>
-      <c r="W74" t="s">
-        <v>729</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y74" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="Z74">
-        <v>1.29</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB74">
-        <v>2</v>
-      </c>
-      <c r="AC74">
-        <v>2</v>
-      </c>
-      <c r="AD74">
-        <v>10</v>
-      </c>
-      <c r="AE74">
-        <v>183800</v>
-      </c>
-      <c r="AF74" t="b">
-        <v>1</v>
+      <c r="S74" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>881</v>
       </c>
     </row>
     <row r="75" spans="1:34">
@@ -11760,10 +11760,10 @@
         <v>1440834242</v>
       </c>
       <c r="V93" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="W93" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="X93" s="2" t="s">
         <v>205</v>
@@ -11890,43 +11890,43 @@
     </row>
     <row r="95" spans="1:34">
       <c r="A95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B95">
-        <v>136975</v>
+        <v>2065398</v>
       </c>
       <c r="C95">
-        <v>1441132965</v>
+        <v>1477982007</v>
       </c>
       <c r="D95" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E95" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>207</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="K95">
-        <v>19.99</v>
+        <v>4.99</v>
       </c>
       <c r="L95" t="s">
         <v>387</v>
       </c>
       <c r="M95">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N95" t="s">
         <v>390</v>
@@ -11935,93 +11935,60 @@
         <v>391</v>
       </c>
       <c r="P95" t="s">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="Q95" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="R95" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="T95" t="s">
-        <v>672</v>
-      </c>
-      <c r="U95">
-        <v>1441133726</v>
-      </c>
-      <c r="V95" t="s">
-        <v>743</v>
-      </c>
-      <c r="W95" t="s">
-        <v>743</v>
-      </c>
-      <c r="X95" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y95" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="Z95">
-        <v>1.29</v>
-      </c>
-      <c r="AA95" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB95">
-        <v>2</v>
-      </c>
-      <c r="AC95">
-        <v>2</v>
-      </c>
-      <c r="AD95">
-        <v>4</v>
-      </c>
-      <c r="AE95">
-        <v>169613</v>
-      </c>
-      <c r="AF95" t="b">
-        <v>1</v>
+      <c r="S95" t="s">
+        <v>669</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>882</v>
       </c>
     </row>
     <row r="96" spans="1:34">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B96">
-        <v>2065398</v>
+        <v>136975</v>
       </c>
       <c r="C96">
-        <v>1477982007</v>
+        <v>1441132965</v>
       </c>
       <c r="D96" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F96" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>208</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="K96">
-        <v>4.99</v>
+        <v>19.99</v>
       </c>
       <c r="L96" t="s">
         <v>387</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N96" t="s">
         <v>390</v>
@@ -12030,22 +11997,55 @@
         <v>391</v>
       </c>
       <c r="P96" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="Q96" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="R96" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="S96" t="s">
-        <v>669</v>
-      </c>
-      <c r="AH96" t="s">
-        <v>882</v>
+      <c r="T96" t="s">
+        <v>672</v>
+      </c>
+      <c r="U96">
+        <v>1441133726</v>
+      </c>
+      <c r="V96" t="s">
+        <v>743</v>
+      </c>
+      <c r="W96" t="s">
+        <v>743</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="Z96">
+        <v>1.29</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB96">
+        <v>2</v>
+      </c>
+      <c r="AC96">
+        <v>2</v>
+      </c>
+      <c r="AD96">
+        <v>4</v>
+      </c>
+      <c r="AE96">
+        <v>169613</v>
+      </c>
+      <c r="AF96" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:32">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:32">
       <c r="A98" t="s">
         <v>43</v>
       </c>
@@ -12235,7 +12235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:32">
       <c r="A99" t="s">
         <v>43</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:32">
       <c r="A100" t="s">
         <v>43</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:32">
       <c r="A101" t="s">
         <v>43</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:32">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -12615,7 +12615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:32">
       <c r="A103" t="s">
         <v>43</v>
       </c>
@@ -12677,10 +12677,10 @@
         <v>1440833911</v>
       </c>
       <c r="V103" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="W103" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="X103" s="2" t="s">
         <v>215</v>
@@ -12710,7 +12710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:32">
       <c r="A104" t="s">
         <v>43</v>
       </c>
@@ -12805,7 +12805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:32">
       <c r="A105" t="s">
         <v>43</v>
       </c>
@@ -12813,16 +12813,16 @@
         <v>136975</v>
       </c>
       <c r="C105">
-        <v>1440833098</v>
+        <v>1441132965</v>
       </c>
       <c r="D105" t="s">
         <v>47</v>
       </c>
       <c r="E105" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F105" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>100</v>
@@ -12831,19 +12831,19 @@
         <v>217</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K105">
-        <v>12.99</v>
+        <v>19.99</v>
       </c>
       <c r="L105" t="s">
         <v>387</v>
       </c>
       <c r="M105">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N105" t="s">
         <v>390</v>
@@ -12852,7 +12852,7 @@
         <v>391</v>
       </c>
       <c r="P105" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="Q105" t="s">
         <v>457</v>
@@ -12864,19 +12864,19 @@
         <v>672</v>
       </c>
       <c r="U105">
-        <v>1440833539</v>
+        <v>1441133714</v>
       </c>
       <c r="V105" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="W105" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="X105" s="2" t="s">
         <v>217</v>
       </c>
       <c r="Y105" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="Z105">
         <v>1.29</v>
@@ -12885,22 +12885,22 @@
         <v>387</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE105">
-        <v>140920</v>
+        <v>131307</v>
       </c>
       <c r="AF105" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:32">
       <c r="A106" t="s">
         <v>43</v>
       </c>
@@ -12908,16 +12908,16 @@
         <v>136975</v>
       </c>
       <c r="C106">
-        <v>1441132965</v>
+        <v>1440833098</v>
       </c>
       <c r="D106" t="s">
         <v>47</v>
       </c>
       <c r="E106" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>100</v>
@@ -12926,19 +12926,19 @@
         <v>218</v>
       </c>
       <c r="I106" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K106">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="L106" t="s">
         <v>387</v>
       </c>
       <c r="M106">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N106" t="s">
         <v>390</v>
@@ -12947,7 +12947,7 @@
         <v>391</v>
       </c>
       <c r="P106" t="s">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="Q106" t="s">
         <v>457</v>
@@ -12959,19 +12959,19 @@
         <v>672</v>
       </c>
       <c r="U106">
-        <v>1441133714</v>
+        <v>1440833539</v>
       </c>
       <c r="V106" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="W106" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="X106" s="2" t="s">
         <v>218</v>
       </c>
       <c r="Y106" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="Z106">
         <v>1.29</v>
@@ -12980,22 +12980,22 @@
         <v>387</v>
       </c>
       <c r="AB106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE106">
-        <v>131307</v>
+        <v>140920</v>
       </c>
       <c r="AF106" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:32">
       <c r="A107" t="s">
         <v>43</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:32">
       <c r="A108" t="s">
         <v>43</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:32">
       <c r="A109" t="s">
         <v>43</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:32">
       <c r="A110" t="s">
         <v>43</v>
       </c>
@@ -13375,7 +13375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:32">
       <c r="A111" t="s">
         <v>43</v>
       </c>
@@ -13383,16 +13383,16 @@
         <v>136975</v>
       </c>
       <c r="C111">
-        <v>1440833098</v>
+        <v>1441132965</v>
       </c>
       <c r="D111" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E111" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F111" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>100</v>
@@ -13401,19 +13401,19 @@
         <v>223</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K111">
-        <v>12.99</v>
+        <v>19.99</v>
       </c>
       <c r="L111" t="s">
         <v>387</v>
       </c>
       <c r="M111">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N111" t="s">
         <v>390</v>
@@ -13422,7 +13422,7 @@
         <v>391</v>
       </c>
       <c r="P111" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="Q111" t="s">
         <v>457</v>
@@ -13434,19 +13434,19 @@
         <v>672</v>
       </c>
       <c r="U111">
-        <v>1440834225</v>
+        <v>1441133482</v>
       </c>
       <c r="V111" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="W111" t="s">
-        <v>711</v>
+        <v>745</v>
       </c>
       <c r="X111" s="2" t="s">
         <v>223</v>
       </c>
       <c r="Y111" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="Z111">
         <v>1.29</v>
@@ -13455,25 +13455,22 @@
         <v>387</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC111">
         <v>1</v>
       </c>
       <c r="AD111">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AE111">
-        <v>191773</v>
+        <v>154627</v>
       </c>
       <c r="AF111" t="b">
         <v>1</v>
       </c>
-      <c r="AI111" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:32">
       <c r="A112" t="s">
         <v>43</v>
       </c>
@@ -13520,7 +13517,7 @@
         <v>391</v>
       </c>
       <c r="P112" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q112" t="s">
         <v>457</v>
@@ -13532,13 +13529,13 @@
         <v>672</v>
       </c>
       <c r="U112">
-        <v>1441133482</v>
+        <v>1441133487</v>
       </c>
       <c r="V112" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="W112" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="X112" s="2" t="s">
         <v>224</v>
@@ -13559,16 +13556,16 @@
         <v>1</v>
       </c>
       <c r="AD112">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AE112">
-        <v>154627</v>
+        <v>164533</v>
       </c>
       <c r="AF112" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:32">
+    <row r="113" spans="1:35">
       <c r="A113" t="s">
         <v>43</v>
       </c>
@@ -13576,16 +13573,16 @@
         <v>136975</v>
       </c>
       <c r="C113">
-        <v>1441132965</v>
+        <v>1440833098</v>
       </c>
       <c r="D113" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E113" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F113" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>100</v>
@@ -13594,19 +13591,19 @@
         <v>225</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K113">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="L113" t="s">
         <v>387</v>
       </c>
       <c r="M113">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N113" t="s">
         <v>390</v>
@@ -13615,7 +13612,7 @@
         <v>391</v>
       </c>
       <c r="P113" t="s">
-        <v>433</v>
+        <v>401</v>
       </c>
       <c r="Q113" t="s">
         <v>457</v>
@@ -13627,19 +13624,19 @@
         <v>672</v>
       </c>
       <c r="U113">
-        <v>1441133487</v>
+        <v>1440834225</v>
       </c>
       <c r="V113" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="W113" t="s">
-        <v>746</v>
+        <v>711</v>
       </c>
       <c r="X113" s="2" t="s">
         <v>225</v>
       </c>
       <c r="Y113" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="Z113">
         <v>1.29</v>
@@ -13648,22 +13645,25 @@
         <v>387</v>
       </c>
       <c r="AB113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>1</v>
       </c>
       <c r="AD113">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AE113">
-        <v>164533</v>
+        <v>191773</v>
       </c>
       <c r="AF113" t="b">
         <v>1</v>
       </c>
+      <c r="AI113" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="114" spans="1:32">
+    <row r="114" spans="1:35">
       <c r="A114" t="s">
         <v>43</v>
       </c>
@@ -13671,16 +13671,16 @@
         <v>136975</v>
       </c>
       <c r="C114">
-        <v>1440833098</v>
+        <v>1441132965</v>
       </c>
       <c r="D114" t="s">
         <v>47</v>
       </c>
       <c r="E114" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F114" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>100</v>
@@ -13689,19 +13689,19 @@
         <v>226</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K114">
-        <v>12.99</v>
+        <v>19.99</v>
       </c>
       <c r="L114" t="s">
         <v>387</v>
       </c>
       <c r="M114">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N114" t="s">
         <v>390</v>
@@ -13710,10 +13710,10 @@
         <v>391</v>
       </c>
       <c r="P114" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q114" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="R114" s="2" t="s">
         <v>577</v>
@@ -13722,19 +13722,19 @@
         <v>672</v>
       </c>
       <c r="U114">
-        <v>1440833554</v>
+        <v>1441133711</v>
       </c>
       <c r="V114" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="W114" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="X114" s="2" t="s">
         <v>226</v>
       </c>
       <c r="Y114" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="Z114">
         <v>1.29</v>
@@ -13743,22 +13743,22 @@
         <v>387</v>
       </c>
       <c r="AB114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD114">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AE114">
-        <v>190120</v>
+        <v>139280</v>
       </c>
       <c r="AF114" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:32">
+    <row r="115" spans="1:35">
       <c r="A115" t="s">
         <v>43</v>
       </c>
@@ -13766,16 +13766,16 @@
         <v>136975</v>
       </c>
       <c r="C115">
-        <v>1441132965</v>
+        <v>1440833098</v>
       </c>
       <c r="D115" t="s">
         <v>47</v>
       </c>
       <c r="E115" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F115" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>100</v>
@@ -13784,19 +13784,19 @@
         <v>227</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K115">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="L115" t="s">
         <v>387</v>
       </c>
       <c r="M115">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N115" t="s">
         <v>390</v>
@@ -13805,10 +13805,10 @@
         <v>391</v>
       </c>
       <c r="P115" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="R115" s="2" t="s">
         <v>578</v>
@@ -13817,19 +13817,19 @@
         <v>672</v>
       </c>
       <c r="U115">
-        <v>1441133711</v>
+        <v>1440833554</v>
       </c>
       <c r="V115" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="W115" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="X115" s="2" t="s">
         <v>227</v>
       </c>
       <c r="Y115" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="Z115">
         <v>1.29</v>
@@ -13838,22 +13838,22 @@
         <v>387</v>
       </c>
       <c r="AB115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD115">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AE115">
-        <v>139280</v>
+        <v>190120</v>
       </c>
       <c r="AF115" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:32">
+    <row r="116" spans="1:35">
       <c r="A116" t="s">
         <v>43</v>
       </c>
@@ -13948,7 +13948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:32">
+    <row r="117" spans="1:35">
       <c r="A117" t="s">
         <v>43</v>
       </c>
@@ -14043,7 +14043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:32">
+    <row r="118" spans="1:35">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:32">
+    <row r="119" spans="1:35">
       <c r="A119" t="s">
         <v>43</v>
       </c>
@@ -14233,7 +14233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:32">
+    <row r="120" spans="1:35">
       <c r="A120" t="s">
         <v>43</v>
       </c>
@@ -14241,16 +14241,16 @@
         <v>136975</v>
       </c>
       <c r="C120">
-        <v>1440833098</v>
+        <v>1441132965</v>
       </c>
       <c r="D120" t="s">
         <v>47</v>
       </c>
       <c r="E120" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F120" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>100</v>
@@ -14259,19 +14259,19 @@
         <v>232</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="K120">
-        <v>12.99</v>
+        <v>19.99</v>
       </c>
       <c r="L120" t="s">
         <v>387</v>
       </c>
       <c r="M120">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N120" t="s">
         <v>390</v>
@@ -14280,7 +14280,7 @@
         <v>391</v>
       </c>
       <c r="P120" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="Q120" t="s">
         <v>457</v>
@@ -14292,19 +14292,19 @@
         <v>672</v>
       </c>
       <c r="U120">
-        <v>1440833545</v>
+        <v>1441133731</v>
       </c>
       <c r="V120" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="W120" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="X120" s="2" t="s">
         <v>232</v>
       </c>
       <c r="Y120" s="2" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="Z120">
         <v>1.29</v>
@@ -14313,22 +14313,22 @@
         <v>387</v>
       </c>
       <c r="AB120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE120">
-        <v>139347</v>
+        <v>125187</v>
       </c>
       <c r="AF120" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:32">
+    <row r="121" spans="1:35">
       <c r="A121" t="s">
         <v>43</v>
       </c>
@@ -14336,16 +14336,16 @@
         <v>136975</v>
       </c>
       <c r="C121">
-        <v>1441132965</v>
+        <v>1440833098</v>
       </c>
       <c r="D121" t="s">
         <v>47</v>
       </c>
       <c r="E121" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F121" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>100</v>
@@ -14354,19 +14354,19 @@
         <v>233</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K121">
-        <v>19.99</v>
+        <v>12.99</v>
       </c>
       <c r="L121" t="s">
         <v>387</v>
       </c>
       <c r="M121">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N121" t="s">
         <v>390</v>
@@ -14375,7 +14375,7 @@
         <v>391</v>
       </c>
       <c r="P121" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="Q121" t="s">
         <v>457</v>
@@ -14387,19 +14387,19 @@
         <v>672</v>
       </c>
       <c r="U121">
-        <v>1441133731</v>
+        <v>1440833545</v>
       </c>
       <c r="V121" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="W121" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="X121" s="2" t="s">
         <v>233</v>
       </c>
       <c r="Y121" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="Z121">
         <v>1.29</v>
@@ -14408,22 +14408,22 @@
         <v>387</v>
       </c>
       <c r="AB121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD121">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE121">
-        <v>125187</v>
+        <v>139347</v>
       </c>
       <c r="AF121" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:32">
+    <row r="122" spans="1:35">
       <c r="A122" t="s">
         <v>43</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:32">
+    <row r="123" spans="1:35">
       <c r="A123" t="s">
         <v>43</v>
       </c>
@@ -14613,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:32">
+    <row r="124" spans="1:35">
       <c r="A124" t="s">
         <v>43</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:32">
+    <row r="125" spans="1:35">
       <c r="A125" t="s">
         <v>43</v>
       </c>
@@ -14803,7 +14803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:32">
+    <row r="126" spans="1:35">
       <c r="A126" t="s">
         <v>43</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:32">
+    <row r="127" spans="1:35">
       <c r="A127" t="s">
         <v>43</v>
       </c>
@@ -14993,7 +14993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:32">
+    <row r="128" spans="1:35">
       <c r="A128" t="s">
         <v>43</v>
       </c>
@@ -19636,7 +19636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:32">
+    <row r="177" spans="1:42">
       <c r="A177" t="s">
         <v>43</v>
       </c>
@@ -19731,7 +19731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:32">
+    <row r="178" spans="1:42">
       <c r="A178" t="s">
         <v>43</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:32">
+    <row r="179" spans="1:42">
       <c r="A179" t="s">
         <v>43</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:32">
+    <row r="180" spans="1:42">
       <c r="A180" t="s">
         <v>43</v>
       </c>
@@ -20016,7 +20016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:32">
+    <row r="181" spans="1:42">
       <c r="A181" t="s">
         <v>43</v>
       </c>
@@ -20024,16 +20024,16 @@
         <v>136975</v>
       </c>
       <c r="C181">
-        <v>1573250333</v>
+        <v>1441165005</v>
       </c>
       <c r="D181" t="s">
         <v>47</v>
       </c>
       <c r="E181" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F181" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>100</v>
@@ -20042,10 +20042,10 @@
         <v>293</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="J181" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="K181">
         <v>12.99</v>
@@ -20054,7 +20054,7 @@
         <v>387</v>
       </c>
       <c r="M181">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N181" t="s">
         <v>390</v>
@@ -20063,7 +20063,7 @@
         <v>391</v>
       </c>
       <c r="P181" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="Q181" t="s">
         <v>457</v>
@@ -20075,19 +20075,19 @@
         <v>672</v>
       </c>
       <c r="U181">
-        <v>1573251683</v>
+        <v>1441165094</v>
       </c>
       <c r="V181" t="s">
         <v>791</v>
       </c>
       <c r="W181" t="s">
-        <v>839</v>
+        <v>791</v>
       </c>
       <c r="X181" s="2" t="s">
         <v>293</v>
       </c>
       <c r="Y181" s="2" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="Z181">
         <v>1.29</v>
@@ -20102,16 +20102,16 @@
         <v>1</v>
       </c>
       <c r="AD181">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE181">
-        <v>154467</v>
+        <v>151280</v>
       </c>
       <c r="AF181" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:32">
+    <row r="182" spans="1:42">
       <c r="A182" t="s">
         <v>43</v>
       </c>
@@ -20119,16 +20119,16 @@
         <v>136975</v>
       </c>
       <c r="C182">
-        <v>1441165005</v>
+        <v>1573250333</v>
       </c>
       <c r="D182" t="s">
         <v>47</v>
       </c>
       <c r="E182" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F182" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>100</v>
@@ -20137,10 +20137,10 @@
         <v>294</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="J182" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="K182">
         <v>12.99</v>
@@ -20149,7 +20149,7 @@
         <v>387</v>
       </c>
       <c r="M182">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N182" t="s">
         <v>390</v>
@@ -20158,7 +20158,7 @@
         <v>391</v>
       </c>
       <c r="P182" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="Q182" t="s">
         <v>457</v>
@@ -20170,19 +20170,19 @@
         <v>672</v>
       </c>
       <c r="U182">
-        <v>1441165094</v>
+        <v>1573251683</v>
       </c>
       <c r="V182" t="s">
         <v>792</v>
       </c>
       <c r="W182" t="s">
-        <v>792</v>
+        <v>839</v>
       </c>
       <c r="X182" s="2" t="s">
         <v>294</v>
       </c>
       <c r="Y182" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="Z182">
         <v>1.29</v>
@@ -20197,16 +20197,16 @@
         <v>1</v>
       </c>
       <c r="AD182">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AE182">
-        <v>151280</v>
+        <v>154467</v>
       </c>
       <c r="AF182" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:32">
+    <row r="183" spans="1:42">
       <c r="A183" t="s">
         <v>43</v>
       </c>
@@ -20301,7 +20301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:32">
+    <row r="184" spans="1:42">
       <c r="A184" t="s">
         <v>43</v>
       </c>
@@ -20396,7 +20396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:32">
+    <row r="185" spans="1:42">
       <c r="A185" t="s">
         <v>43</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:32">
+    <row r="186" spans="1:42">
       <c r="A186" t="s">
         <v>43</v>
       </c>
@@ -20586,7 +20586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:32">
+    <row r="187" spans="1:42">
       <c r="A187" t="s">
         <v>43</v>
       </c>
@@ -20681,7 +20681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:32">
+    <row r="188" spans="1:42">
       <c r="A188" t="s">
         <v>43</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:32">
+    <row r="189" spans="1:42">
       <c r="A189" t="s">
         <v>43</v>
       </c>
@@ -20871,7 +20871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:32">
+    <row r="190" spans="1:42">
       <c r="A190" t="s">
         <v>43</v>
       </c>
@@ -20966,7 +20966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:32">
+    <row r="191" spans="1:42">
       <c r="A191" t="s">
         <v>43</v>
       </c>
@@ -21061,30 +21061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:32">
+    <row r="192" spans="1:42">
       <c r="A192" t="s">
         <v>43</v>
       </c>
-      <c r="B192">
-        <v>136975</v>
-      </c>
-      <c r="C192">
-        <v>1441164362</v>
-      </c>
       <c r="D192" t="s">
-        <v>47</v>
-      </c>
-      <c r="E192" t="s">
-        <v>85</v>
-      </c>
-      <c r="F192" t="s">
-        <v>85</v>
-      </c>
-      <c r="G192" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>304</v>
+        <v>62</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>347</v>
@@ -21093,13 +21075,10 @@
         <v>384</v>
       </c>
       <c r="K192">
-        <v>12.99</v>
+        <v>14.99</v>
       </c>
       <c r="L192" t="s">
         <v>387</v>
-      </c>
-      <c r="M192">
-        <v>16</v>
       </c>
       <c r="N192" t="s">
         <v>390</v>
@@ -21108,57 +21087,87 @@
         <v>391</v>
       </c>
       <c r="P192" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="Q192" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="R192" s="2" t="s">
         <v>655</v>
       </c>
       <c r="T192" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="U192">
-        <v>1441165035</v>
+        <v>1468185021</v>
       </c>
       <c r="V192" t="s">
-        <v>85</v>
+        <v>800</v>
       </c>
       <c r="W192" t="s">
-        <v>841</v>
+        <v>800</v>
       </c>
       <c r="X192" s="2" t="s">
-        <v>304</v>
+        <v>845</v>
       </c>
       <c r="Y192" s="2" t="s">
         <v>874</v>
       </c>
       <c r="Z192">
-        <v>1.99</v>
+        <v>14.99</v>
       </c>
       <c r="AA192" t="s">
         <v>387</v>
       </c>
-      <c r="AB192">
-        <v>1</v>
-      </c>
-      <c r="AC192">
-        <v>1</v>
-      </c>
-      <c r="AD192">
-        <v>15</v>
-      </c>
       <c r="AE192">
-        <v>178000</v>
+        <v>6344688</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>878</v>
+      </c>
+      <c r="AK192">
+        <v>3.99</v>
+      </c>
+      <c r="AL192">
+        <v>17.99</v>
+      </c>
+      <c r="AM192">
+        <v>17.99</v>
+      </c>
+      <c r="AN192">
+        <v>3.99</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>886</v>
+      </c>
+      <c r="AP192" t="s">
+        <v>887</v>
       </c>
     </row>
-    <row r="193" spans="1:42">
+    <row r="193" spans="1:34">
       <c r="A193" t="s">
         <v>43</v>
       </c>
+      <c r="B193">
+        <v>136975</v>
+      </c>
+      <c r="C193">
+        <v>1441164362</v>
+      </c>
       <c r="D193" t="s">
-        <v>62</v>
+        <v>47</v>
+      </c>
+      <c r="E193" t="s">
+        <v>85</v>
+      </c>
+      <c r="F193" t="s">
+        <v>85</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>304</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>348</v>
@@ -21167,10 +21176,13 @@
         <v>385</v>
       </c>
       <c r="K193">
-        <v>14.99</v>
+        <v>12.99</v>
       </c>
       <c r="L193" t="s">
         <v>387</v>
+      </c>
+      <c r="M193">
+        <v>16</v>
       </c>
       <c r="N193" t="s">
         <v>390</v>
@@ -21179,102 +21191,90 @@
         <v>391</v>
       </c>
       <c r="P193" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="Q193" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="R193" s="2" t="s">
         <v>656</v>
       </c>
       <c r="T193" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="U193">
-        <v>1468185021</v>
+        <v>1441165035</v>
       </c>
       <c r="V193" t="s">
-        <v>800</v>
+        <v>85</v>
       </c>
       <c r="W193" t="s">
-        <v>800</v>
+        <v>841</v>
       </c>
       <c r="X193" s="2" t="s">
-        <v>845</v>
+        <v>304</v>
       </c>
       <c r="Y193" s="2" t="s">
         <v>875</v>
       </c>
       <c r="Z193">
-        <v>14.99</v>
+        <v>1.99</v>
       </c>
       <c r="AA193" t="s">
         <v>387</v>
       </c>
+      <c r="AB193">
+        <v>1</v>
+      </c>
+      <c r="AC193">
+        <v>1</v>
+      </c>
+      <c r="AD193">
+        <v>15</v>
+      </c>
       <c r="AE193">
-        <v>6344688</v>
-      </c>
-      <c r="AG193" t="s">
-        <v>878</v>
-      </c>
-      <c r="AK193">
-        <v>3.99</v>
-      </c>
-      <c r="AL193">
-        <v>17.99</v>
-      </c>
-      <c r="AM193">
-        <v>17.99</v>
-      </c>
-      <c r="AN193">
-        <v>3.99</v>
-      </c>
-      <c r="AO193" t="s">
-        <v>886</v>
-      </c>
-      <c r="AP193" t="s">
-        <v>887</v>
+        <v>178000</v>
       </c>
     </row>
-    <row r="194" spans="1:42">
+    <row r="194" spans="1:34">
       <c r="A194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B194">
-        <v>136975</v>
+        <v>310801194</v>
       </c>
       <c r="C194">
-        <v>1441164362</v>
+        <v>1454533897</v>
       </c>
       <c r="D194" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E194" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F194" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>305</v>
       </c>
       <c r="I194" s="2" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="J194" s="2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="K194">
-        <v>12.99</v>
+        <v>6.99</v>
       </c>
       <c r="L194" t="s">
         <v>387</v>
       </c>
       <c r="M194">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="N194" t="s">
         <v>390</v>
@@ -21283,93 +21283,60 @@
         <v>391</v>
       </c>
       <c r="P194" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="Q194" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="R194" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="T194" t="s">
-        <v>672</v>
-      </c>
-      <c r="U194">
-        <v>1441164630</v>
-      </c>
-      <c r="V194" t="s">
-        <v>801</v>
-      </c>
-      <c r="W194" t="s">
-        <v>801</v>
-      </c>
-      <c r="X194" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="Y194" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="Z194">
-        <v>1.29</v>
-      </c>
-      <c r="AA194" t="s">
-        <v>387</v>
-      </c>
-      <c r="AB194">
-        <v>1</v>
-      </c>
-      <c r="AC194">
-        <v>1</v>
-      </c>
-      <c r="AD194">
-        <v>5</v>
-      </c>
-      <c r="AE194">
-        <v>106400</v>
-      </c>
-      <c r="AF194" t="b">
-        <v>1</v>
+      <c r="S194" t="s">
+        <v>671</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>884</v>
       </c>
     </row>
-    <row r="195" spans="1:42">
+    <row r="195" spans="1:34">
       <c r="A195" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B195">
-        <v>310801194</v>
+        <v>136975</v>
       </c>
       <c r="C195">
-        <v>1454533897</v>
+        <v>1441164362</v>
       </c>
       <c r="D195" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E195" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F195" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>306</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J195" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="K195">
-        <v>6.99</v>
+        <v>12.99</v>
       </c>
       <c r="L195" t="s">
         <v>387</v>
       </c>
       <c r="M195">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="N195" t="s">
         <v>390</v>
@@ -21378,22 +21345,55 @@
         <v>391</v>
       </c>
       <c r="P195" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
       <c r="Q195" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="R195" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="S195" t="s">
-        <v>671</v>
-      </c>
-      <c r="AH195" t="s">
-        <v>884</v>
+      <c r="T195" t="s">
+        <v>672</v>
+      </c>
+      <c r="U195">
+        <v>1441164630</v>
+      </c>
+      <c r="V195" t="s">
+        <v>801</v>
+      </c>
+      <c r="W195" t="s">
+        <v>801</v>
+      </c>
+      <c r="X195" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y195" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="Z195">
+        <v>1.29</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>387</v>
+      </c>
+      <c r="AB195">
+        <v>1</v>
+      </c>
+      <c r="AC195">
+        <v>1</v>
+      </c>
+      <c r="AD195">
+        <v>5</v>
+      </c>
+      <c r="AE195">
+        <v>106400</v>
+      </c>
+      <c r="AF195" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:42">
+    <row r="196" spans="1:34">
       <c r="A196" t="s">
         <v>43</v>
       </c>
@@ -21488,7 +21488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:42">
+    <row r="197" spans="1:34">
       <c r="A197" t="s">
         <v>43</v>
       </c>
@@ -21583,7 +21583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:42">
+    <row r="198" spans="1:34">
       <c r="A198" t="s">
         <v>43</v>
       </c>
@@ -21678,7 +21678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:42">
+    <row r="199" spans="1:34">
       <c r="A199" t="s">
         <v>43</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:42">
+    <row r="200" spans="1:34">
       <c r="A200" t="s">
         <v>43</v>
       </c>
@@ -21868,7 +21868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:42">
+    <row r="201" spans="1:34">
       <c r="A201" t="s">
         <v>43</v>
       </c>
@@ -22461,13 +22461,13 @@
     <hyperlink ref="I73" r:id="rId494"/>
     <hyperlink ref="J73" r:id="rId495"/>
     <hyperlink ref="R73" r:id="rId496"/>
-    <hyperlink ref="G74" r:id="rId497"/>
-    <hyperlink ref="H74" r:id="rId498"/>
-    <hyperlink ref="I74" r:id="rId499"/>
-    <hyperlink ref="J74" r:id="rId500"/>
-    <hyperlink ref="R74" r:id="rId501"/>
-    <hyperlink ref="X74" r:id="rId502"/>
-    <hyperlink ref="Y74" r:id="rId503"/>
+    <hyperlink ref="X73" r:id="rId497"/>
+    <hyperlink ref="Y73" r:id="rId498"/>
+    <hyperlink ref="G74" r:id="rId499"/>
+    <hyperlink ref="H74" r:id="rId500"/>
+    <hyperlink ref="I74" r:id="rId501"/>
+    <hyperlink ref="J74" r:id="rId502"/>
+    <hyperlink ref="R74" r:id="rId503"/>
     <hyperlink ref="G75" r:id="rId504"/>
     <hyperlink ref="H75" r:id="rId505"/>
     <hyperlink ref="I75" r:id="rId506"/>
@@ -22613,13 +22613,13 @@
     <hyperlink ref="I95" r:id="rId646"/>
     <hyperlink ref="J95" r:id="rId647"/>
     <hyperlink ref="R95" r:id="rId648"/>
-    <hyperlink ref="X95" r:id="rId649"/>
-    <hyperlink ref="Y95" r:id="rId650"/>
-    <hyperlink ref="G96" r:id="rId651"/>
-    <hyperlink ref="H96" r:id="rId652"/>
-    <hyperlink ref="I96" r:id="rId653"/>
-    <hyperlink ref="J96" r:id="rId654"/>
-    <hyperlink ref="R96" r:id="rId655"/>
+    <hyperlink ref="G96" r:id="rId649"/>
+    <hyperlink ref="H96" r:id="rId650"/>
+    <hyperlink ref="I96" r:id="rId651"/>
+    <hyperlink ref="J96" r:id="rId652"/>
+    <hyperlink ref="R96" r:id="rId653"/>
+    <hyperlink ref="X96" r:id="rId654"/>
+    <hyperlink ref="Y96" r:id="rId655"/>
     <hyperlink ref="G97" r:id="rId656"/>
     <hyperlink ref="H97" r:id="rId657"/>
     <hyperlink ref="I97" r:id="rId658"/>
@@ -23283,13 +23283,13 @@
     <hyperlink ref="R191" r:id="rId1316"/>
     <hyperlink ref="X191" r:id="rId1317"/>
     <hyperlink ref="Y191" r:id="rId1318"/>
-    <hyperlink ref="G192" r:id="rId1319"/>
-    <hyperlink ref="H192" r:id="rId1320"/>
-    <hyperlink ref="I192" r:id="rId1321"/>
-    <hyperlink ref="J192" r:id="rId1322"/>
-    <hyperlink ref="R192" r:id="rId1323"/>
-    <hyperlink ref="X192" r:id="rId1324"/>
-    <hyperlink ref="Y192" r:id="rId1325"/>
+    <hyperlink ref="I192" r:id="rId1319"/>
+    <hyperlink ref="J192" r:id="rId1320"/>
+    <hyperlink ref="R192" r:id="rId1321"/>
+    <hyperlink ref="X192" r:id="rId1322"/>
+    <hyperlink ref="Y192" r:id="rId1323"/>
+    <hyperlink ref="G193" r:id="rId1324"/>
+    <hyperlink ref="H193" r:id="rId1325"/>
     <hyperlink ref="I193" r:id="rId1326"/>
     <hyperlink ref="J193" r:id="rId1327"/>
     <hyperlink ref="R193" r:id="rId1328"/>
@@ -23300,13 +23300,13 @@
     <hyperlink ref="I194" r:id="rId1333"/>
     <hyperlink ref="J194" r:id="rId1334"/>
     <hyperlink ref="R194" r:id="rId1335"/>
-    <hyperlink ref="X194" r:id="rId1336"/>
-    <hyperlink ref="Y194" r:id="rId1337"/>
-    <hyperlink ref="G195" r:id="rId1338"/>
-    <hyperlink ref="H195" r:id="rId1339"/>
-    <hyperlink ref="I195" r:id="rId1340"/>
-    <hyperlink ref="J195" r:id="rId1341"/>
-    <hyperlink ref="R195" r:id="rId1342"/>
+    <hyperlink ref="G195" r:id="rId1336"/>
+    <hyperlink ref="H195" r:id="rId1337"/>
+    <hyperlink ref="I195" r:id="rId1338"/>
+    <hyperlink ref="J195" r:id="rId1339"/>
+    <hyperlink ref="R195" r:id="rId1340"/>
+    <hyperlink ref="X195" r:id="rId1341"/>
+    <hyperlink ref="Y195" r:id="rId1342"/>
     <hyperlink ref="G196" r:id="rId1343"/>
     <hyperlink ref="H196" r:id="rId1344"/>
     <hyperlink ref="I196" r:id="rId1345"/>
